--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_7_2.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_7_2.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2116890218010973</v>
+        <v>0.6244955548078103</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7321595477176117</v>
+        <v>0.4810815906795829</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8376753736480147</v>
+        <v>0.07932307540037664</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7912426427374166</v>
+        <v>0.211491955676601</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8724279403686523</v>
+        <v>0.4155727922916412</v>
       </c>
       <c r="G2" t="n">
-        <v>2.147176504135132</v>
+        <v>0.2461107820272446</v>
       </c>
       <c r="H2" t="n">
-        <v>3.346544742584229</v>
+        <v>2.234782218933105</v>
       </c>
       <c r="I2" t="n">
-        <v>2.711585521697998</v>
+        <v>1.181956171989441</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.216699530359961</v>
+        <v>0.6280056471781839</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6964470658883473</v>
+        <v>0.4898282375023925</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8352972809727393</v>
+        <v>0.09570534380868845</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7744155072723709</v>
+        <v>0.2254411426725104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8668827414512634</v>
+        <v>0.4116881191730499</v>
       </c>
       <c r="G3" t="n">
-        <v>2.102907419204712</v>
+        <v>0.2419624626636505</v>
       </c>
       <c r="H3" t="n">
-        <v>3.342214107513428</v>
+        <v>2.195017099380493</v>
       </c>
       <c r="I3" t="n">
-        <v>2.686112642288208</v>
+        <v>1.161046504974365</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2212084882744647</v>
+        <v>0.6308014574709552</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6584403750790944</v>
+        <v>0.4994507942384036</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8359336491872313</v>
+        <v>0.1099278179446547</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7582975973984911</v>
+        <v>0.2378903412238682</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8618927001953125</v>
+        <v>0.4085939824581146</v>
       </c>
       <c r="G4" t="n">
-        <v>2.055794477462769</v>
+        <v>0.237398698925972</v>
       </c>
       <c r="H4" t="n">
-        <v>3.343372821807861</v>
+        <v>2.160494565963745</v>
       </c>
       <c r="I4" t="n">
-        <v>2.661713361740112</v>
+        <v>1.142385601997375</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2275590448107775</v>
+        <v>0.6338880409953453</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6168225581362949</v>
+        <v>0.5107600691727181</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8311551195999403</v>
+        <v>0.1247942637020881</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.737548808217563</v>
+        <v>0.2511136390873432</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8548645377159119</v>
+        <v>0.4051780700683594</v>
       </c>
       <c r="G5" t="n">
-        <v>2.004205465316772</v>
+        <v>0.2320349961519241</v>
       </c>
       <c r="H5" t="n">
-        <v>3.334671020507812</v>
+        <v>2.124408721923828</v>
       </c>
       <c r="I5" t="n">
-        <v>2.630303859710693</v>
+        <v>1.122564196586609</v>
       </c>
     </row>
     <row r="6">
@@ -606,28 +606,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2340450376568642</v>
+        <v>0.6361135386749246</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5694223824434375</v>
+        <v>0.5190702446017985</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8321352792011074</v>
+        <v>0.1376702844729901</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.7175593277106078</v>
+        <v>0.2623179205384651</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8476865887641907</v>
+        <v>0.4027151465415955</v>
       </c>
       <c r="G6" t="n">
-        <v>1.945448398590088</v>
+        <v>0.2280936539173126</v>
       </c>
       <c r="H6" t="n">
-        <v>3.336455821990967</v>
+        <v>2.093154430389404</v>
       </c>
       <c r="I6" t="n">
-        <v>2.600043773651123</v>
+        <v>1.105769157409668</v>
       </c>
     </row>
     <row r="7">
@@ -637,183 +637,183 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4594823080062872</v>
+        <v>0.6395400467204037</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05621405937699386</v>
+        <v>0.5291747771945471</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3234043769387502</v>
+        <v>0.1542961280643036</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1583386889890035</v>
+        <v>0.2766794353404396</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5981937646865845</v>
+        <v>0.3989229500293732</v>
       </c>
       <c r="G7" t="n">
-        <v>1.169912338256836</v>
+        <v>0.2233013361692429</v>
       </c>
       <c r="H7" t="n">
-        <v>2.410018682479858</v>
+        <v>2.052798271179199</v>
       </c>
       <c r="I7" t="n">
-        <v>1.753494739532471</v>
+        <v>1.084241509437561</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_16</t>
+          <t>model_7_2_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4870663847145332</v>
+        <v>0.6425806570555945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1443563749158251</v>
+        <v>0.5377169514202708</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.14922250557117</v>
+        <v>0.1706383063085508</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02151931385501515</v>
+        <v>0.2905640041493702</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5676663517951965</v>
+        <v>0.3955579102039337</v>
       </c>
       <c r="G8" t="n">
-        <v>1.060651540756226</v>
+        <v>0.219249963760376</v>
       </c>
       <c r="H8" t="n">
-        <v>2.092820405960083</v>
+        <v>2.01313042640686</v>
       </c>
       <c r="I8" t="n">
-        <v>1.546377420425415</v>
+        <v>1.063428997993469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_15</t>
+          <t>model_7_2_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4982835008151775</v>
+        <v>0.6470907270654956</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3675948402607829</v>
+        <v>0.5473592131583177</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1856403227644785</v>
+        <v>0.191328695543748</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05464126320065732</v>
+        <v>0.3079456225517249</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5552523136138916</v>
+        <v>0.3905665576457977</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7839263081550598</v>
+        <v>0.2146768569946289</v>
       </c>
       <c r="H9" t="n">
-        <v>2.15913987159729</v>
+        <v>1.962908029556274</v>
       </c>
       <c r="I9" t="n">
-        <v>1.431085467338562</v>
+        <v>1.037374258041382</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_14</t>
+          <t>model_7_2_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5029439895563512</v>
+        <v>0.6545934685205541</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4073437992638098</v>
+        <v>0.558818370233371</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1837383376964021</v>
+        <v>0.2219113151844232</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07295067311020376</v>
+        <v>0.3331702326863785</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500945448875427</v>
+        <v>0.3822632133960724</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7346537113189697</v>
+        <v>0.2092420607805252</v>
       </c>
       <c r="H10" t="n">
-        <v>2.155676364898682</v>
+        <v>1.888674139976501</v>
       </c>
       <c r="I10" t="n">
-        <v>1.403368711471558</v>
+        <v>0.9995629787445068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_17</t>
+          <t>model_7_2_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.509175564940073</v>
+        <v>0.6686409342210216</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09264472594135686</v>
+        <v>0.5775400068332394</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.08114268416205594</v>
+        <v>0.271831288714754</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.005397591410430058</v>
+        <v>0.374346795730209</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5431979894638062</v>
+        <v>0.3667168617248535</v>
       </c>
       <c r="G11" t="n">
-        <v>1.12475311756134</v>
+        <v>0.2003628462553024</v>
       </c>
       <c r="H11" t="n">
-        <v>1.968841791152954</v>
+        <v>1.767502188682556</v>
       </c>
       <c r="I11" t="n">
-        <v>1.521972298622131</v>
+        <v>0.9378403425216675</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_10</t>
+          <t>model_7_2_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5119370837837993</v>
+        <v>0.6792219051892892</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6101588052745914</v>
+        <v>0.6002074095102625</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2360515398156244</v>
+        <v>0.3118141047768228</v>
       </c>
       <c r="E12" t="n">
-        <v>0.131257484918158</v>
+        <v>0.4086118224869449</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5401418209075928</v>
+        <v>0.3550068438053131</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4832452237606049</v>
+        <v>0.1896122097969055</v>
       </c>
       <c r="H12" t="n">
-        <v>2.250942707061768</v>
+        <v>1.670450925827026</v>
       </c>
       <c r="I12" t="n">
-        <v>1.315103650093079</v>
+        <v>0.8864778280258179</v>
       </c>
     </row>
     <row r="13">
@@ -823,214 +823,214 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5170372175886323</v>
+        <v>0.6910822488842499</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4778617470601694</v>
+        <v>0.6139619981336619</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1654816036455393</v>
+        <v>0.3568207919521486</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1138570824644678</v>
+        <v>0.4452129471071696</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5344974994659424</v>
+        <v>0.3418809473514557</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6472399830818176</v>
+        <v>0.1830887347459793</v>
       </c>
       <c r="H13" t="n">
-        <v>2.122429370880127</v>
+        <v>1.56120502948761</v>
       </c>
       <c r="I13" t="n">
-        <v>1.341444373130798</v>
+        <v>0.8316135406494141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_18</t>
+          <t>model_7_2_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5211597388708715</v>
+        <v>0.7161230938233912</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08172878396907912</v>
+        <v>0.6315940593198217</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04794260113921234</v>
+        <v>0.4474023995817296</v>
       </c>
       <c r="E14" t="n">
-        <v>0.008666998054546626</v>
+        <v>0.5171925263993742</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5299350619316101</v>
+        <v>0.3141681253910065</v>
       </c>
       <c r="G14" t="n">
-        <v>1.13828432559967</v>
+        <v>0.1747262626886368</v>
       </c>
       <c r="H14" t="n">
-        <v>1.908382177352905</v>
+        <v>1.341333985328674</v>
       </c>
       <c r="I14" t="n">
-        <v>1.500681400299072</v>
+        <v>0.7237176895141602</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_9</t>
+          <t>model_7_2_8</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5257017765609238</v>
+        <v>0.719330732751761</v>
       </c>
       <c r="C15" t="n">
-        <v>0.664586714669689</v>
+        <v>0.6504892933909991</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1992889917048797</v>
+        <v>0.5390870816829414</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1756642178467881</v>
+        <v>0.5902239770280563</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5249084234237671</v>
+        <v>0.3106181919574738</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4157766699790955</v>
+        <v>0.1657647043466568</v>
       </c>
       <c r="H15" t="n">
-        <v>2.183995246887207</v>
+        <v>1.118785381317139</v>
       </c>
       <c r="I15" t="n">
-        <v>1.247880697250366</v>
+        <v>0.6142451763153076</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_11</t>
+          <t>model_7_2_7</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5265369176901449</v>
+        <v>0.7243583226486996</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5829759921510503</v>
+        <v>0.627294750486317</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.176014513089245</v>
+        <v>0.5742183120271575</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1534605344610469</v>
+        <v>0.613109934483705</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5239840745925903</v>
+        <v>0.3050541281700134</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5169408917427063</v>
+        <v>0.1767653077840805</v>
       </c>
       <c r="H16" t="n">
-        <v>2.141610622406006</v>
+        <v>1.033510565757751</v>
       </c>
       <c r="I16" t="n">
-        <v>1.281492590904236</v>
+        <v>0.5799396634101868</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_8</t>
+          <t>model_7_2_11</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5298581535892339</v>
+        <v>0.7259523796117096</v>
       </c>
       <c r="C17" t="n">
-        <v>0.701766377371726</v>
+        <v>0.6459265426592284</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.20275208236864</v>
+        <v>0.4902542567131076</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1898231702927637</v>
+        <v>0.5522475899563033</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5203084945678711</v>
+        <v>0.3032899498939514</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3696889281272888</v>
+        <v>0.1679287105798721</v>
       </c>
       <c r="H17" t="n">
-        <v>2.190301656723022</v>
+        <v>1.237318515777588</v>
       </c>
       <c r="I17" t="n">
-        <v>1.226446866989136</v>
+        <v>0.6711709499359131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_12</t>
+          <t>model_7_2_9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5426930092458209</v>
+        <v>0.7272035638586224</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5438642785810144</v>
+        <v>0.658551006277297</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1041489159897495</v>
+        <v>0.5305686063390919</v>
       </c>
       <c r="E18" t="n">
-        <v>0.177188316280841</v>
+        <v>0.5850830452681886</v>
       </c>
       <c r="F18" t="n">
-        <v>0.506104052066803</v>
+        <v>0.3019053041934967</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5654236078262329</v>
+        <v>0.1619412302970886</v>
       </c>
       <c r="H18" t="n">
-        <v>2.010737895965576</v>
+        <v>1.13946259021759</v>
       </c>
       <c r="I18" t="n">
-        <v>1.245573401451111</v>
+        <v>0.6219514012336731</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_7</t>
+          <t>model_7_2_10</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5492826191321376</v>
+        <v>0.7379779382948537</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7441868342484383</v>
+        <v>0.6688696032116639</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1300694059128549</v>
+        <v>0.5347505180107608</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2493577454099202</v>
+        <v>0.5899985442126879</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4988113045692444</v>
+        <v>0.2899812161922455</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3171047568321228</v>
+        <v>0.1570473462343216</v>
       </c>
       <c r="H19" t="n">
-        <v>2.057941198348999</v>
+        <v>1.129311800003052</v>
       </c>
       <c r="I19" t="n">
-        <v>1.136323213577271</v>
+        <v>0.6145831346511841</v>
       </c>
     </row>
     <row r="20">
@@ -1040,28 +1040,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5669780832810446</v>
+        <v>0.7718399217435846</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8106879246814752</v>
+        <v>0.6960843736813098</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.06968938412675452</v>
+        <v>0.744843520438242</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3123704472690497</v>
+        <v>0.7546543583813384</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4792276918888092</v>
+        <v>0.2525059878826141</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2346702963113785</v>
+        <v>0.1441400349140167</v>
       </c>
       <c r="H20" t="n">
-        <v>1.947984576225281</v>
+        <v>0.6193476915359497</v>
       </c>
       <c r="I20" t="n">
-        <v>1.040934562683105</v>
+        <v>0.3677676618099213</v>
       </c>
     </row>
     <row r="21">
@@ -1071,183 +1071,183 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.589946540259523</v>
+        <v>0.776001008969595</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8262263285970028</v>
+        <v>0.7986581691314508</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03758621926906369</v>
+        <v>0.7783072570247671</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3798348003066694</v>
+        <v>0.7973368401491346</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4538083672523499</v>
+        <v>0.2479008585214615</v>
       </c>
       <c r="G21" t="n">
-        <v>0.215408980846405</v>
+        <v>0.0954916849732399</v>
       </c>
       <c r="H21" t="n">
-        <v>1.752627611160278</v>
+        <v>0.5381203293800354</v>
       </c>
       <c r="I21" t="n">
-        <v>0.93880695104599</v>
+        <v>0.3037875890731812</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_3</t>
+          <t>model_7_2_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.604186247543502</v>
+        <v>0.7869848000232615</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8647179944824568</v>
+        <v>0.8205763323727913</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09743942998360022</v>
+        <v>0.8240879264210397</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4304046882591031</v>
+        <v>0.8358947724192284</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4380491673946381</v>
+        <v>0.2357450574636459</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1676949113607407</v>
+        <v>0.08509642630815506</v>
       </c>
       <c r="H22" t="n">
-        <v>1.643630504608154</v>
+        <v>0.4269957840442657</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8622542023658752</v>
+        <v>0.2459901124238968</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_4</t>
+          <t>model_7_2_0</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6046728495221914</v>
+        <v>0.7913315794707996</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8836774176520313</v>
+        <v>0.8513022770348379</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06667852336518354</v>
+        <v>0.9145406194115412</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4212112701966919</v>
+        <v>0.9099691951498021</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4375106692314148</v>
+        <v>0.2309344559907913</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1441929042339325</v>
+        <v>0.07052382826805115</v>
       </c>
       <c r="H23" t="n">
-        <v>1.699648380279541</v>
+        <v>0.2074376940727234</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8761712312698364</v>
+        <v>0.1349541693925858</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_2</t>
+          <t>model_7_2_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6211121401599817</v>
+        <v>0.795967551032936</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6628867962751115</v>
+        <v>0.8524914284058274</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4568794975013043</v>
+        <v>0.9045153704589464</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5463910689073421</v>
+        <v>0.9025289727722448</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4193172454833984</v>
+        <v>0.2258038073778152</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4178838431835175</v>
+        <v>0.0699598491191864</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9890631437301636</v>
+        <v>0.231772243976593</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6866738200187683</v>
+        <v>0.1461069136857986</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_1</t>
+          <t>model_7_2_3</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6243723600882936</v>
+        <v>0.7980371216215562</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6305785991581123</v>
+        <v>0.8287629174830111</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5195766834622977</v>
+        <v>0.8766962744332921</v>
       </c>
       <c r="E25" t="n">
-        <v>0.567879204747947</v>
+        <v>0.8773556057548243</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4157090783119202</v>
+        <v>0.2235133945941925</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4579329490661621</v>
+        <v>0.08121372014284134</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8748869299888611</v>
+        <v>0.2992982268333435</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6541450619697571</v>
+        <v>0.1838412433862686</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_2_0</t>
+          <t>model_7_2_2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6682152897698133</v>
+        <v>0.8044162390134412</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8675603908860308</v>
+        <v>0.8491182373929974</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5821346051959024</v>
+        <v>0.9062614204759269</v>
       </c>
       <c r="E26" t="n">
-        <v>0.706027394538551</v>
+        <v>0.9032945784023549</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3671879172325134</v>
+        <v>0.2164535820484161</v>
       </c>
       <c r="G26" t="n">
-        <v>0.164171501994133</v>
+        <v>0.07155966758728027</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7609642148017883</v>
+        <v>0.2275339961051941</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4450161457061768</v>
+        <v>0.1449593007564545</v>
       </c>
     </row>
   </sheetData>
